--- a/data/result/#20240819_result_graph_input.xlsx
+++ b/data/result/#20240819_result_graph_input.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\FMDR\data\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD4AEC5-EBF2-4046-926F-E340F6D72376}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48B14D-669F-4C2D-A9F2-0AF246987B3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="34635" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="34635" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Curated_all_F" sheetId="4" r:id="rId1"/>
+    <sheet name="Result" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Curated_all_F!$A$1:$K$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Result!$A$1:$K$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -25,18 +25,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Point MDR (EC10)</t>
-  </si>
-  <si>
-    <t>Point MDR (EC30)</t>
-  </si>
-  <si>
-    <t>Point MDR (EC50)</t>
-  </si>
-  <si>
     <t>mix_1</t>
   </si>
   <si>
@@ -213,11 +201,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Point MDR (EC70)</t>
+    <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>No</t>
+    <r>
+      <t>CMDR (EC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CMDR (EC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CMDR (EC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CMDR (EC</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +355,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="4">
@@ -624,7 +728,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E701F5-6BE3-4475-91BF-FDB36B6F65EC}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K53"/>
@@ -634,45 +737,45 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="12.875" customWidth="1"/>
-    <col min="3" max="6" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="17.25" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="18.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="18">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -680,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <v>0.84276602285036706</v>
@@ -715,7 +818,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>0.60839160166723061</v>
@@ -750,7 +853,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>0.82566630857752477</v>
@@ -785,7 +888,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0.63223570514082583</v>
@@ -820,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <v>2.6541187928061878</v>
@@ -855,7 +958,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>1.043098184669073</v>
@@ -890,7 +993,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4">
         <v>0.8267121381845699</v>
@@ -925,7 +1028,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4">
         <v>0.62664276702707933</v>
@@ -960,7 +1063,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
         <v>0.56110453787782799</v>
@@ -995,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
         <v>0.53400901078234453</v>
@@ -1030,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>0.67401767019031811</v>
@@ -1065,7 +1168,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4">
         <v>0.94817661996747737</v>
@@ -1100,7 +1203,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>0.727359254093216</v>
@@ -1135,7 +1238,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4">
         <v>0.5080127402015806</v>
@@ -1170,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <v>0.48224932414649541</v>
@@ -1205,7 +1308,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4">
         <v>1.1642473580270341</v>
@@ -1240,7 +1343,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4">
         <v>0.78837060994598895</v>
@@ -1275,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4">
         <v>1.0495621444579131</v>
@@ -1310,7 +1413,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4">
         <v>0.50302185018056467</v>
@@ -1345,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5">
         <v>0.37093531903531812</v>
@@ -1380,7 +1483,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4">
         <v>1.3456019119978371</v>
@@ -1415,7 +1518,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4">
         <v>0.79982717717344698</v>
@@ -1450,7 +1553,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="4">
         <v>0.99233591303611346</v>
@@ -1485,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4">
         <v>0.5787076721914497</v>
@@ -1520,7 +1623,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="4">
         <v>0.71142522251694629</v>
@@ -1555,7 +1658,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C27" s="4">
         <v>0.52971947273808973</v>
@@ -1590,7 +1693,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C28" s="4">
         <v>0.96173033513600636</v>
@@ -1625,7 +1728,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4">
         <v>0.60248459525023712</v>
@@ -1660,7 +1763,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4">
         <v>0.57829234454728229</v>
@@ -1695,7 +1798,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C31" s="5">
         <v>0.49995255319339588</v>
@@ -1730,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C32" s="4">
         <v>0.61149091859012761</v>
@@ -1765,7 +1868,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C33" s="4">
         <v>0.57573121841659936</v>
@@ -1800,7 +1903,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4">
         <v>0.52124464984921293</v>
@@ -1835,7 +1938,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C35" s="4">
         <v>0.52318832866390252</v>
@@ -1870,7 +1973,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C36" s="5">
         <v>0.45207740435139537</v>
@@ -1905,7 +2008,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C37" s="5">
         <v>0.30699919079599031</v>
@@ -1940,7 +2043,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" s="4">
         <v>1.133845063503393</v>
@@ -1975,7 +2078,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C39" s="4">
         <v>0.63326953788097495</v>
@@ -2010,7 +2113,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" s="4">
         <v>0.85437192967478803</v>
@@ -2045,7 +2148,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" s="4">
         <v>0.55286654560459081</v>
@@ -2080,7 +2183,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C42" s="4">
         <v>0.65726032875616625</v>
@@ -2115,7 +2218,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C43" s="5">
         <v>0.48295830632133918</v>
@@ -2150,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C44" s="4">
         <v>0.59065689762871187</v>
@@ -2185,7 +2288,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C45" s="5">
         <v>0.49606451806933027</v>
@@ -2220,7 +2323,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C46" s="4">
         <v>0.51487120863110625</v>
@@ -2255,7 +2358,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C47" s="4">
         <v>0.53388328440012534</v>
@@ -2290,7 +2393,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C48" s="5">
         <v>0.3325031878109409</v>
@@ -2325,7 +2428,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4">
         <v>0.63072827751552807</v>
@@ -2360,7 +2463,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C50" s="4">
         <v>0.53092777873764607</v>
@@ -2395,7 +2498,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C51" s="4">
         <v>0.56809805450760431</v>
@@ -2430,7 +2533,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C52" s="5">
         <v>0.40225065467150262</v>
@@ -2465,7 +2568,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C53" s="4">
         <v>0.67265085106132372</v>
